--- a/Assets/Excel/play_poker_card.xlsx
+++ b/Assets/Excel/play_poker_card.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -141,7 +141,10 @@
     <t>注释2</t>
   </si>
   <si>
-    <t>path1</t>
+    <t>heitao</t>
+  </si>
+  <si>
+    <t>heitao.png</t>
   </si>
   <si>
     <t>J</t>
@@ -156,13 +159,13 @@
     <t>A</t>
   </si>
   <si>
-    <t>path2</t>
-  </si>
-  <si>
-    <t>path3</t>
-  </si>
-  <si>
-    <t>path4</t>
+    <t>hongtao</t>
+  </si>
+  <si>
+    <t>meihua</t>
+  </si>
+  <si>
+    <t>fangkuai</t>
   </si>
 </sst>
 </file>
@@ -828,7 +831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,6 +852,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1180,8 +1186,8 @@
   <sheetPr/>
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1310,14 +1316,14 @@
       <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>18</v>
+      <c r="F5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -1333,14 +1339,14 @@
       <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>18</v>
+      <c r="F6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1357,14 +1363,14 @@
       <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>18</v>
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H7" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -1380,14 +1386,14 @@
       <c r="E8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>18</v>
+      <c r="F8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H8" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -1403,14 +1409,14 @@
       <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>18</v>
+      <c r="F9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -1426,14 +1432,14 @@
       <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>18</v>
+      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H10" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -1449,11 +1455,11 @@
       <c r="E11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>18</v>
+      <c r="F11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H11" s="1">
         <v>7</v>
@@ -1472,14 +1478,14 @@
       <c r="E12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>18</v>
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H12" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -1495,14 +1501,14 @@
       <c r="E13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>18</v>
+      <c r="F13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H13" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -1510,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1518,14 +1524,14 @@
       <c r="E14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>18</v>
+      <c r="F14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H14" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:8">
@@ -1533,7 +1539,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1541,14 +1547,14 @@
       <c r="E15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>18</v>
+      <c r="F15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H15" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -1556,7 +1562,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1564,14 +1570,14 @@
       <c r="E16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>18</v>
+      <c r="F16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H16" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -1579,7 +1585,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1587,14 +1593,14 @@
       <c r="E17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>18</v>
+      <c r="F17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H17" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1608,16 +1614,16 @@
         <v>2</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -1631,16 +1637,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H19" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -1654,16 +1660,16 @@
         <v>2</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H20" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -1677,16 +1683,16 @@
         <v>2</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H21" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -1700,16 +1706,16 @@
         <v>2</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H22" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -1723,16 +1729,16 @@
         <v>2</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H23" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -1746,13 +1752,13 @@
         <v>2</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H24" s="1">
         <v>7</v>
@@ -1769,16 +1775,16 @@
         <v>2</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H25" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -1792,16 +1798,16 @@
         <v>2</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H26" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -1809,22 +1815,22 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H27" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -1832,22 +1838,22 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H28" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -1855,22 +1861,22 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H29" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -1878,22 +1884,22 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H30" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:8">
@@ -1907,16 +1913,16 @@
         <v>3</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H31" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -1930,16 +1936,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H32" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="2:8">
@@ -1953,16 +1959,16 @@
         <v>3</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H33" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="2:8">
@@ -1976,16 +1982,16 @@
         <v>3</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H34" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:8">
@@ -1999,16 +2005,16 @@
         <v>3</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H35" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="2:8">
@@ -2022,16 +2028,16 @@
         <v>3</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H36" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="2:8">
@@ -2045,13 +2051,13 @@
         <v>3</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H37" s="1">
         <v>7</v>
@@ -2068,16 +2074,16 @@
         <v>3</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H38" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="2:8">
@@ -2091,16 +2097,16 @@
         <v>3</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H39" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:8">
@@ -2108,22 +2114,22 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H40" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="2:8">
@@ -2131,22 +2137,22 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H41" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="2:8">
@@ -2154,22 +2160,22 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H42" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:8">
@@ -2177,22 +2183,22 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H43" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -2206,16 +2212,16 @@
         <v>4</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H44" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="2:8">
@@ -2229,16 +2235,16 @@
         <v>4</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H45" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="2:8">
@@ -2252,16 +2258,16 @@
         <v>4</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H46" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="2:8">
@@ -2275,16 +2281,16 @@
         <v>4</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H47" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -2298,16 +2304,16 @@
         <v>4</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H48" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="2:8">
@@ -2321,16 +2327,16 @@
         <v>4</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H49" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="2:8">
@@ -2344,13 +2350,13 @@
         <v>4</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H50" s="1">
         <v>7</v>
@@ -2367,16 +2373,16 @@
         <v>4</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H51" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="2:8">
@@ -2390,16 +2396,16 @@
         <v>4</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H52" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="2:8">
@@ -2407,22 +2413,22 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H53" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:8">
@@ -2430,22 +2436,22 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D54">
         <v>4</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H54" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="2:8">
@@ -2453,22 +2459,22 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D55">
         <v>4</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H55" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="2:8">
@@ -2476,22 +2482,22 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D56">
         <v>4</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H56" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
